--- a/EXCEL_SMALL_2.xlsx
+++ b/EXCEL_SMALL_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="73">
   <si>
     <t>SubscriptionName</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>Disk Operations</t>
+  </si>
+  <si>
+    <t>Azure Subtotal</t>
+  </si>
+  <si>
+    <t>CS Service Charge</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
   <si>
     <t>EAG-TST</t>
@@ -580,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:L19"/>
+  <dimension ref="A3:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -842,29 +851,29 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J10" s="2">
         <v>24</v>
@@ -878,7 +887,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -894,10 +903,10 @@
         <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>28</v>
@@ -914,7 +923,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -930,7 +939,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
@@ -948,29 +957,29 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J13" s="2">
         <v>7.2e-05</v>
@@ -984,25 +993,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
@@ -1020,31 +1029,31 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -1058,23 +1067,23 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
@@ -1092,13 +1101,13 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>15</v>
@@ -1107,14 +1116,14 @@
         <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J17" s="2">
         <v>0.019757</v>
@@ -1128,7 +1137,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
@@ -1144,7 +1153,7 @@
         <v>30</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
@@ -1161,8 +1170,29 @@
       </c>
     </row>
     <row r="19" spans="1:12">
+      <c r="K19" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L19">
         <f>sum(L4:L18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="K20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20">
+        <f>(L19 * 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="K21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21">
+        <f>( L19 + L20 )</f>
         <v>0</v>
       </c>
     </row>
@@ -1173,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1439,8 +1469,29 @@
       </c>
     </row>
     <row r="12" spans="1:12">
+      <c r="K12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L12" s="2">
         <f>sum(L4:L9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="K13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <f>(L12 * 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="K14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14">
+        <f>( L12 + L13 )</f>
         <v>0</v>
       </c>
     </row>
@@ -1451,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1459,7 +1510,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1502,29 +1553,29 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2">
         <v>24</v>
@@ -1538,7 +1589,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -1554,10 +1605,10 @@
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1574,7 +1625,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -1590,7 +1641,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
@@ -1608,29 +1659,29 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J7" s="2">
         <v>7.2e-05</v>
@@ -1644,25 +1695,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
@@ -1680,31 +1731,31 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -1718,23 +1769,23 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
@@ -1752,13 +1803,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
@@ -1767,14 +1818,14 @@
         <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J11" s="2">
         <v>0.019757</v>
@@ -1788,7 +1839,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -1804,7 +1855,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
@@ -1821,8 +1872,29 @@
       </c>
     </row>
     <row r="15" spans="1:12">
+      <c r="K15" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L15" s="2">
         <f>sum(L4:L12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="K16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <f>(L15 * 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12">
+      <c r="K17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17">
+        <f>( L15 + L16 )</f>
         <v>0</v>
       </c>
     </row>
